--- a/biology/Médecine/Jean_Baptiste_Paulin_Trolard/Jean_Baptiste_Paulin_Trolard.xlsx
+++ b/biology/Médecine/Jean_Baptiste_Paulin_Trolard/Jean_Baptiste_Paulin_Trolard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Baptiste Paulin Trolard né à Sedan (Ardennes) le 27 novembre 1842, mort à Alger le 13 avril 1910 est un anatomiste de l'École d'Alger reconnu pour son travail sur les veines anastomotiques de la circulation cérébrale.
 Connue de tous les neurochirurgiens, la Grande Veine Anastomotique ou veine de Trolard souligne une partie de la contribution de Trolard à la neuro-anatomie.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelques années après la naissance de Jean Baptiste Paulin, la famille Trolard s'installe en Algérie.
 C'est à l'école préparatoire de Médecine et de Pharmacie d'Alger qu'il va entreprendre ses études supérieures . Dès 1865 il y est nommé chef des travaux anatomiques.
@@ -549,7 +563,9 @@
           <t>Principaux travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines structures anatomiques portent le nom du Professeur Trolard ; la veine cérébrale anastomotique supérieure ou veine de Trolard, le ligament costo-lamellaire de Trolard et l'articulation unco-vertébrale dite de Trolard. La « loi de Trolard » et « les chevrons de Trolard » sont restés dans l'histoire de l'anatomie.
 Les muscles du pouce et du petit doigt, du gros et petit orteil (1882); le système nerveux de l'olfaction (1889); les veines méningées moyennes (1890) ; les sinus (1892) ; les muscles spinaux et certaines articulations du rachis (1892) ont également fait l'objet d'études sous sa direction.
